--- a/training/W.xlsx
+++ b/training/W.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.72701802507837</v>
+        <v>0.95625</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7269004702194357</v>
+        <v>0.91756993006993</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7102076802507836</v>
+        <v>0.7703671328671329</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/training/W.xlsx
+++ b/training/W.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,35 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>LRSADTLM</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Resnet18</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Resnet34</t>
+          <t>Resnet18_couple</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ResNet18_VIT</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Resnet34_couple</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Resnet34_ViT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>TASK</t>
         </is>
@@ -457,15 +472,24 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.95625</v>
+        <v>0.9619318181818182</v>
       </c>
       <c r="B2" t="n">
-        <v>0.91756993006993</v>
+        <v>0.9454545454545455</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7703671328671329</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9368006993006993</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9142045454545455</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9094405594405593</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9090909090909092</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>W0_W1</t>
         </is>
@@ -473,15 +497,24 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.6398706896551725</v>
+        <v>0.946590909090909</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7150470219435736</v>
+        <v>0.9443181818181818</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6519200626959247</v>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>0.9002185314685315</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.932867132867133</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8973776223776225</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.883916083916084</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>W0_W2</t>
         </is>
@@ -489,15 +522,24 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8669474921630094</v>
+        <v>0.8702797202797203</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7247257053291536</v>
+        <v>0.9442307692307693</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6777233542319749</v>
-      </c>
-      <c r="D4" t="inlineStr">
+        <v>0.8756993006993007</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8793269230769232</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8943618881118882</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8774038461538461</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>W0_W3</t>
         </is>
@@ -505,15 +547,24 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7282131661442006</v>
+        <v>0.897465034965035</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5971590909090909</v>
+        <v>0.912805944055944</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6385384012539185</v>
-      </c>
-      <c r="D5" t="inlineStr">
+        <v>0.8252185314685315</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8389423076923078</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8311625874125875</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8525786713286714</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>W1_W0</t>
         </is>
@@ -521,15 +572,24 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9416666666666668</v>
+        <v>0.9895000000000002</v>
       </c>
       <c r="B6" t="n">
-        <v>0.88125</v>
+        <v>0.9930000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9059294871794872</v>
-      </c>
-      <c r="D6" t="inlineStr">
+        <v>0.9574999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9744999999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9316666666666666</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9869999999999999</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>W1_W2</t>
         </is>
@@ -537,15 +597,24 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9448717948717948</v>
+        <v>0.9318333333333332</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8693910256410255</v>
+        <v>0.991</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8717948717948717</v>
-      </c>
-      <c r="D7" t="inlineStr">
+        <v>0.914423076923077</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9213333333333333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9709999999999999</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>W1_W3</t>
         </is>
@@ -553,15 +622,24 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.6968260188087775</v>
+        <v>0.8264423076923079</v>
       </c>
       <c r="B8" t="n">
-        <v>0.680583855799373</v>
+        <v>0.8679195804195805</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5793103448275863</v>
-      </c>
-      <c r="D8" t="inlineStr">
+        <v>0.826048951048951</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8213286713286714</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7975087412587413</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8338286713286713</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>W2_W0</t>
         </is>
@@ -569,15 +647,24 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9524038461538462</v>
+        <v>0.9373333333333334</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9459935897435898</v>
+        <v>0.9765</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8975961538461539</v>
-      </c>
-      <c r="D9" t="inlineStr">
+        <v>0.9326666666666666</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9236666666666669</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9653333333333333</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>W2_W1</t>
         </is>
@@ -585,15 +672,24 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9294871794871795</v>
+        <v>0.9790000000000001</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8427884615384615</v>
+        <v>0.9949999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9051282051282051</v>
-      </c>
-      <c r="D10" t="inlineStr">
+        <v>0.9408333333333333</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9845</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9473333333333332</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9789999999999999</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>W2_W3</t>
         </is>
@@ -601,15 +697,24 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.7007641065830722</v>
+        <v>0.8184877622377623</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5935736677115988</v>
+        <v>0.8375437062937063</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5634208463949844</v>
-      </c>
-      <c r="D11" t="inlineStr">
+        <v>0.8189248251748253</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8111013986013986</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7830856643356644</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8059877622377624</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>W3_W0</t>
         </is>
@@ -617,15 +722,24 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9137820512820513</v>
+        <v>0.8963333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8919871794871795</v>
+        <v>0.9173333333333333</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9296474358974359</v>
-      </c>
-      <c r="D12" t="inlineStr">
+        <v>0.8310000000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9078333333333333</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8581666666666667</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9108333333333333</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>W3_W1</t>
         </is>
@@ -633,15 +747,24 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9379807692307691</v>
+        <v>0.9168333333333333</v>
       </c>
       <c r="B13" t="n">
-        <v>0.872275641025641</v>
+        <v>0.961</v>
       </c>
       <c r="C13" t="n">
-        <v>0.88125</v>
-      </c>
-      <c r="D13" t="inlineStr">
+        <v>0.8776666666666667</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9343333333333333</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8811666666666668</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9543333333333333</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>W3_W2</t>
         </is>
